--- a/Oklahoma/WaterAllocation/OKwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/Oklahoma/WaterAllocation/OKwr_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Oklahoma\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915B824E-7DEA-422D-9CE9-53BD7433DED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484FEE8E-334A-4F4B-AF06-7F082C92B4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="4" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="5" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="306">
   <si>
     <t>Name</t>
   </si>
@@ -942,6 +942,21 @@
   </si>
   <si>
     <t>https://www.owrb.ok.gov/supply/ocwp/pdf_ocwp/WaterPlanUpdate/joint_committee/WATER%20LAW_MANAGEMENT%20IN%20OKLAHOMA.pdf</t>
+  </si>
+  <si>
+    <t>Questions:</t>
+  </si>
+  <si>
+    <t>missing native landing page info</t>
+  </si>
+  <si>
+    <t>double check those allocation type results again</t>
+  </si>
+  <si>
+    <t>No good native site ID.  Will just use Record_ID for now</t>
+  </si>
+  <si>
+    <t>RECORD_ID</t>
   </si>
 </sst>
 </file>
@@ -2354,7 +2369,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2418,30 +2433,42 @@
         <v>287</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D17" s="73"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="69" t="s">
+        <v>301</v>
+      </c>
+      <c r="B18" t="s">
+        <v>302</v>
+      </c>
       <c r="D18" s="72"/>
       <c r="E18" s="72"/>
       <c r="F18" s="72"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>303</v>
+      </c>
       <c r="D19" s="72"/>
       <c r="E19" s="72"/>
       <c r="F19" s="72"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>304</v>
+      </c>
       <c r="D20" s="72"/>
       <c r="E20" s="72"/>
       <c r="F20" s="72"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" s="18"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" s="18"/>
     </row>
   </sheetData>
@@ -2847,7 +2874,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3232,7 +3259,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>38</v>
@@ -3683,7 +3710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC5F405-0A84-4CAE-BAB0-9DF044EAE9B9}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -4002,8 +4029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:E18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4542,13 +4569,13 @@
         <v>38</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>284</v>
+        <v>38</v>
       </c>
       <c r="F19" s="22" t="s">
         <v>38</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>38</v>
+        <v>305</v>
       </c>
       <c r="H19" s="74" t="s">
         <v>270</v>
@@ -4693,8 +4720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A23" sqref="A22:G23"/>
+    <sheetView topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Oklahoma/WaterAllocation/OKwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/Oklahoma/WaterAllocation/OKwr_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Oklahoma\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484FEE8E-334A-4F4B-AF06-7F082C92B4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD992A6-73F1-4FB3-A970-186B904AB8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="5" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="3" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="305">
   <si>
     <t>Name</t>
   </si>
@@ -276,9 +276,6 @@
   </si>
   <si>
     <t>OrganizationContactEmail</t>
-  </si>
-  <si>
-    <t>OrganizationDataMappingURL</t>
   </si>
   <si>
     <t>State</t>
@@ -2383,54 +2380,54 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="69" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" t="s">
         <v>244</v>
-      </c>
-      <c r="B2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="69" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2440,10 +2437,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="69" t="s">
+        <v>300</v>
+      </c>
+      <c r="B18" t="s">
         <v>301</v>
-      </c>
-      <c r="B18" t="s">
-        <v>302</v>
       </c>
       <c r="D18" s="72"/>
       <c r="E18" s="72"/>
@@ -2451,7 +2448,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D19" s="72"/>
       <c r="E19" s="72"/>
@@ -2459,7 +2456,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D20" s="72"/>
       <c r="E20" s="72"/>
@@ -2479,10 +2476,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2521,13 +2518,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -2568,7 +2565,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2585,7 +2582,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>38</v>
@@ -2597,10 +2594,10 @@
         <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J4" s="60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -2617,7 +2614,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>38</v>
@@ -2629,10 +2626,10 @@
         <v>38</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J5" s="60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2649,7 +2646,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>38</v>
@@ -2664,7 +2661,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="60" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2681,7 +2678,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>38</v>
@@ -2696,7 +2693,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2713,7 +2710,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>38</v>
@@ -2725,10 +2722,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J8" s="60" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2745,7 +2742,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="89" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>38</v>
@@ -2758,7 +2755,7 @@
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2775,7 +2772,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>38</v>
@@ -2787,10 +2784,10 @@
         <v>38</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J10" s="60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -2807,7 +2804,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="80" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>38</v>
@@ -2819,10 +2816,10 @@
         <v>38</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J11" s="60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2839,7 +2836,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>38</v>
@@ -2851,10 +2848,39 @@
         <v>38</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J12" s="60" t="s">
-        <v>216</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="80" t="s">
+        <v>246</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" s="60" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2863,9 +2889,10 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="E11" r:id="rId1" xr:uid="{4E3B1F8C-BED1-4B9A-B4F5-D46E0909B447}"/>
+    <hyperlink ref="E13" r:id="rId2" xr:uid="{3ED473B5-FD50-4618-A139-00022E2B0318}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2913,13 +2940,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -2954,7 +2981,7 @@
         <v>16</v>
       </c>
       <c r="J3" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2971,7 +2998,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>38</v>
@@ -2983,10 +3010,10 @@
         <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J4" s="60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3018,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3035,7 +3062,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>38</v>
@@ -3047,10 +3074,10 @@
         <v>38</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J6" s="60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3067,7 +3094,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>38</v>
@@ -3079,10 +3106,10 @@
         <v>38</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J7" s="60" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3099,7 +3126,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>38</v>
@@ -3111,10 +3138,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J8" s="60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3131,7 +3158,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>38</v>
@@ -3143,10 +3170,10 @@
         <v>38</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J9" s="60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3178,7 +3205,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3195,7 +3222,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>38</v>
@@ -3207,10 +3234,10 @@
         <v>38</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J11" s="60" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3227,7 +3254,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>38</v>
@@ -3239,10 +3266,10 @@
         <v>38</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J12" s="60" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -3259,7 +3286,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>38</v>
@@ -3271,10 +3298,10 @@
         <v>38</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J13" s="60" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3288,10 +3315,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3330,13 +3357,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3377,7 +3404,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3394,7 +3421,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>38</v>
@@ -3406,10 +3433,10 @@
         <v>38</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J4" s="60" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3426,7 +3453,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>38</v>
@@ -3438,10 +3465,10 @@
         <v>38</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5" s="60" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3458,7 +3485,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>38</v>
@@ -3470,15 +3497,15 @@
         <v>38</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J6" s="60" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>34</v>
@@ -3489,8 +3516,8 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="80" t="s">
-        <v>247</v>
+      <c r="E7" s="18" t="s">
+        <v>244</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>38</v>
@@ -3502,15 +3529,15 @@
         <v>38</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="J7" s="60" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>34</v>
@@ -3522,7 +3549,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>245</v>
+        <v>127</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>38</v>
@@ -3534,27 +3561,27 @@
         <v>38</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="J8" s="60" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>128</v>
+        <v>245</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>38</v>
@@ -3566,27 +3593,27 @@
         <v>38</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="J9" s="60" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>246</v>
+      <c r="E10" s="80" t="s">
+        <v>270</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>38</v>
@@ -3598,18 +3625,18 @@
         <v>38</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="J10" s="60" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>38</v>
@@ -3617,8 +3644,8 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="80" t="s">
-        <v>271</v>
+      <c r="E11" s="18" t="s">
+        <v>247</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>38</v>
@@ -3630,43 +3657,14 @@
         <v>38</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J11" s="60" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J12" s="60" t="s">
-        <v>186</v>
-      </c>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19"/>
@@ -3689,20 +3687,16 @@
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:A25">
-    <sortCondition ref="A17:A25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:A24">
+    <sortCondition ref="A16:A24"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" xr:uid="{3ED473B5-FD50-4618-A139-00022E2B0318}"/>
-    <hyperlink ref="E11" r:id="rId2" xr:uid="{C91A4DD1-187C-48F1-B976-F0044AF87776}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{C75D63B1-89AA-4633-AFEA-3F13752D3261}"/>
+    <hyperlink ref="E10" r:id="rId1" xr:uid="{C91A4DD1-187C-48F1-B976-F0044AF87776}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{C75D63B1-89AA-4633-AFEA-3F13752D3261}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3750,13 +3744,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3795,7 +3789,7 @@
         <v>34658</v>
       </c>
       <c r="J3" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3812,7 +3806,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>38</v>
@@ -3822,10 +3816,10 @@
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J4" s="60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3842,7 +3836,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F5" s="70" t="s">
         <v>38</v>
@@ -3855,7 +3849,7 @@
         <v>38</v>
       </c>
       <c r="J5" s="60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3872,7 +3866,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F6" s="70" t="s">
         <v>38</v>
@@ -3885,7 +3879,7 @@
         <v>38</v>
       </c>
       <c r="J6" s="60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3902,7 +3896,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F7" s="70" t="s">
         <v>38</v>
@@ -3912,10 +3906,10 @@
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J7" s="60" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3932,7 +3926,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="70" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F8" s="70" t="s">
         <v>38</v>
@@ -3942,10 +3936,10 @@
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J8" s="60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3962,7 +3956,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F9" s="70" t="s">
         <v>38</v>
@@ -3975,7 +3969,7 @@
         <v>17839</v>
       </c>
       <c r="J9" s="60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3992,20 +3986,20 @@
         <v>20</v>
       </c>
       <c r="E10" s="70" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F10" s="32" t="s">
         <v>38</v>
       </c>
       <c r="G10" s="71" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J10" s="60" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4029,7 +4023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -4069,13 +4063,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4114,7 +4108,7 @@
         <v>39035</v>
       </c>
       <c r="J3" s="60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4129,7 +4123,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F4" s="42" t="s">
         <v>38</v>
@@ -4139,10 +4133,10 @@
       </c>
       <c r="H4" s="75"/>
       <c r="I4" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J4" s="60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4150,7 +4144,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>18</v>
@@ -4159,7 +4153,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>38</v>
@@ -4169,10 +4163,10 @@
       </c>
       <c r="H5" s="75"/>
       <c r="I5" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J5" s="60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4189,7 +4183,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>38</v>
@@ -4199,10 +4193,10 @@
       </c>
       <c r="H6" s="75"/>
       <c r="I6" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J6" s="60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
@@ -4210,7 +4204,7 @@
         <v>66</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="52" t="s">
         <v>18</v>
@@ -4225,14 +4219,14 @@
         <v>38</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H7" s="77"/>
       <c r="I7" s="70" t="s">
         <v>38</v>
       </c>
       <c r="J7" s="78" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4249,7 +4243,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>38</v>
@@ -4259,10 +4253,10 @@
       </c>
       <c r="H8" s="74"/>
       <c r="I8" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J8" s="60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4279,7 +4273,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>38</v>
@@ -4290,7 +4284,7 @@
       <c r="H9" s="75"/>
       <c r="I9" s="18"/>
       <c r="J9" s="60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -4307,7 +4301,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>38</v>
@@ -4320,7 +4314,7 @@
         <v>38</v>
       </c>
       <c r="J10" s="60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4328,7 +4322,7 @@
         <v>64</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>18</v>
@@ -4337,7 +4331,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>38</v>
@@ -4350,7 +4344,7 @@
         <v>38</v>
       </c>
       <c r="J11" s="61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4358,7 +4352,7 @@
         <v>65</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>18</v>
@@ -4369,14 +4363,14 @@
       <c r="E12" s="70"/>
       <c r="F12" s="22"/>
       <c r="G12" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H12" s="75"/>
       <c r="I12" s="19" t="s">
         <v>38</v>
       </c>
       <c r="J12" s="61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4399,14 +4393,14 @@
         <v>38</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H13" s="76"/>
       <c r="I13" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J13" s="60" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4429,14 +4423,14 @@
         <v>38</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H14" s="76"/>
       <c r="I14" s="18">
         <v>-1067.700435</v>
       </c>
       <c r="J14" s="60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4453,7 +4447,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>38</v>
@@ -4466,7 +4460,7 @@
         <v>38</v>
       </c>
       <c r="J15" s="60" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4483,7 +4477,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>38</v>
@@ -4496,12 +4490,12 @@
         <v>38</v>
       </c>
       <c r="J16" s="60" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>16</v>
@@ -4513,7 +4507,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="62" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F17" s="32" t="s">
         <v>38</v>
@@ -4523,7 +4517,7 @@
       </c>
       <c r="H17" s="81"/>
       <c r="I17" s="82" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J17" s="81"/>
     </row>
@@ -4539,7 +4533,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="58" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>38</v>
@@ -4549,10 +4543,10 @@
       </c>
       <c r="H18" s="75"/>
       <c r="I18" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J18" s="60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4575,16 +4569,16 @@
         <v>38</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H19" s="74" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I19" s="18">
         <v>3703994</v>
       </c>
       <c r="J19" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4601,7 +4595,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>38</v>
@@ -4611,10 +4605,10 @@
       </c>
       <c r="H20" s="75"/>
       <c r="I20" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J20" s="61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4631,7 +4625,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="58" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>38</v>
@@ -4641,10 +4635,10 @@
       </c>
       <c r="H21" s="75"/>
       <c r="I21" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J21" s="60" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4661,7 +4655,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>38</v>
@@ -4671,10 +4665,10 @@
       </c>
       <c r="H22" s="75"/>
       <c r="I22" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J22" s="60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -4691,7 +4685,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F23" s="22" t="s">
         <v>38</v>
@@ -4704,7 +4698,7 @@
         <v>38</v>
       </c>
       <c r="J23" s="61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4760,13 +4754,13 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4780,7 +4774,7 @@
     </row>
     <row r="3" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="51" t="s">
         <v>33</v>
@@ -4801,7 +4795,7 @@
         <v>50004</v>
       </c>
       <c r="J3" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
@@ -4833,7 +4827,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
@@ -4865,7 +4859,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
@@ -4897,7 +4891,7 @@
         <v>39035</v>
       </c>
       <c r="J6" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
@@ -4929,7 +4923,7 @@
         <v>63</v>
       </c>
       <c r="J7" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
@@ -4961,12 +4955,12 @@
         <v>371091</v>
       </c>
       <c r="J8" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B9" s="51" t="s">
         <v>34</v>
@@ -4978,7 +4972,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="47"/>
@@ -5000,7 +4994,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F10" s="32" t="s">
         <v>38</v>
@@ -5015,7 +5009,7 @@
         <v>38</v>
       </c>
       <c r="J10" s="60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -5032,7 +5026,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>38</v>
@@ -5047,7 +5041,7 @@
         <v>38</v>
       </c>
       <c r="J11" s="60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5064,7 +5058,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>38</v>
@@ -5079,7 +5073,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -5096,7 +5090,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>38</v>
@@ -5111,7 +5105,7 @@
         <v>38</v>
       </c>
       <c r="J13" s="60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5128,7 +5122,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F14" s="42" t="s">
         <v>38</v>
@@ -5143,12 +5137,12 @@
         <v>38</v>
       </c>
       <c r="J14" s="60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" s="51" t="s">
         <v>33</v>
@@ -5166,7 +5160,7 @@
         <v>38</v>
       </c>
       <c r="G15" s="47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H15" s="36" t="s">
         <v>38</v>
@@ -5175,12 +5169,12 @@
         <v>5363</v>
       </c>
       <c r="J15" s="60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>68</v>
@@ -5192,7 +5186,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>38</v>
@@ -5204,15 +5198,15 @@
         <v>38</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J16" s="61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>68</v>
@@ -5224,7 +5218,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F17" s="32" t="s">
         <v>38</v>
@@ -5236,15 +5230,15 @@
         <v>38</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J17" s="61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="35" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="51" t="s">
         <v>34</v>
@@ -5256,7 +5250,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>38</v>
@@ -5268,15 +5262,15 @@
         <v>38</v>
       </c>
       <c r="I18" s="62" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J18" s="60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>15</v>
@@ -5288,7 +5282,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>38</v>
@@ -5300,15 +5294,15 @@
         <v>38</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J19" s="61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>34</v>
@@ -5320,7 +5314,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>38</v>
@@ -5332,15 +5326,15 @@
         <v>38</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J20" s="60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>69</v>
@@ -5352,7 +5346,7 @@
         <v>38</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>38</v>
@@ -5367,12 +5361,12 @@
         <v>38</v>
       </c>
       <c r="J21" s="61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>33</v>
@@ -5384,7 +5378,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>38</v>
@@ -5399,12 +5393,12 @@
         <v>5200</v>
       </c>
       <c r="J22" s="60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>69</v>
@@ -5416,7 +5410,7 @@
         <v>38</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>38</v>
@@ -5425,18 +5419,18 @@
         <v>38</v>
       </c>
       <c r="H23" s="79" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I23" s="18">
         <v>1</v>
       </c>
       <c r="J23" s="60" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>34</v>
@@ -5454,21 +5448,21 @@
         <v>38</v>
       </c>
       <c r="G24" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H24" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J24" s="60" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>34</v>
@@ -5486,21 +5480,21 @@
         <v>38</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H25" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J25" s="60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>34</v>
@@ -5518,21 +5512,21 @@
         <v>38</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H26" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J26" s="60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>33</v>
@@ -5550,21 +5544,21 @@
         <v>38</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H27" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J27" s="60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="35" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>15</v>
@@ -5576,7 +5570,7 @@
         <v>20</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F28" s="32" t="s">
         <v>38</v>
@@ -5591,15 +5585,15 @@
         <v>38</v>
       </c>
       <c r="J28" s="60" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>18</v>
@@ -5608,7 +5602,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F29" s="32" t="s">
         <v>38</v>
@@ -5623,15 +5617,15 @@
         <v>44196</v>
       </c>
       <c r="J29" s="60" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>18</v>
@@ -5640,7 +5634,7 @@
         <v>38</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F30" s="32" t="s">
         <v>38</v>
@@ -5655,12 +5649,12 @@
         <v>43831</v>
       </c>
       <c r="J30" s="60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31" s="90" t="s">
         <v>34</v>
@@ -5678,21 +5672,21 @@
         <v>38</v>
       </c>
       <c r="G31" s="94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H31" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J31" s="61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>69</v>
@@ -5710,7 +5704,7 @@
         <v>38</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H32" s="36" t="s">
         <v>38</v>
@@ -5719,12 +5713,12 @@
         <v>0</v>
       </c>
       <c r="J32" s="60" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>34</v>
@@ -5742,7 +5736,7 @@
         <v>38</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H33" s="36" t="s">
         <v>38</v>
@@ -5751,12 +5745,12 @@
         <v>38</v>
       </c>
       <c r="J33" s="60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>34</v>
@@ -5768,7 +5762,7 @@
         <v>38</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F34" s="32" t="s">
         <v>38</v>
@@ -5780,15 +5774,15 @@
         <v>38</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J34" s="61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>15</v>
@@ -5800,7 +5794,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F35" s="32" t="s">
         <v>38</v>
@@ -5812,15 +5806,15 @@
         <v>38</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J35" s="60" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:16" s="50" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>15</v>
@@ -5832,7 +5826,7 @@
         <v>20</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>38</v>
@@ -5844,15 +5838,15 @@
         <v>38</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J36" s="60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B37" s="51" t="s">
         <v>33</v>
@@ -5879,15 +5873,15 @@
         <v>43874</v>
       </c>
       <c r="J37" s="60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="83" t="s">
+        <v>277</v>
+      </c>
+      <c r="B38" s="51" t="s">
         <v>278</v>
-      </c>
-      <c r="B38" s="51" t="s">
-        <v>279</v>
       </c>
       <c r="C38" s="52" t="s">
         <v>18</v>
@@ -5910,7 +5904,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>15</v>
@@ -5922,7 +5916,7 @@
         <v>38</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F39" s="32" t="s">
         <v>38</v>
@@ -5937,12 +5931,12 @@
         <v>33187</v>
       </c>
       <c r="J39" s="61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>69</v>
@@ -5954,7 +5948,7 @@
         <v>38</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F40" s="32" t="s">
         <v>38</v>
@@ -5969,12 +5963,12 @@
         <v>38</v>
       </c>
       <c r="J40" s="60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>69</v>
@@ -5986,7 +5980,7 @@
         <v>38</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F41" s="32" t="s">
         <v>38</v>
@@ -5999,12 +5993,12 @@
         <v>38</v>
       </c>
       <c r="J41" s="60" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>15</v>
@@ -6016,7 +6010,7 @@
         <v>20</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F42" s="32" t="s">
         <v>38</v>
@@ -6028,15 +6022,15 @@
         <v>38</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J42" s="60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>34</v>
@@ -6048,7 +6042,7 @@
         <v>38</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F43" s="32" t="s">
         <v>38</v>
@@ -6063,12 +6057,12 @@
         <v>38</v>
       </c>
       <c r="J43" s="61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>34</v>
@@ -6086,10 +6080,10 @@
         <v>38</v>
       </c>
       <c r="I44" s="64" t="s">
+        <v>280</v>
+      </c>
+      <c r="J44" s="60" t="s">
         <v>281</v>
-      </c>
-      <c r="J44" s="60" t="s">
-        <v>282</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -6100,7 +6094,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>33</v>
@@ -6112,7 +6106,7 @@
         <v>38</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F45" s="32" t="s">
         <v>38</v>
@@ -6127,12 +6121,12 @@
         <v>38</v>
       </c>
       <c r="J45" s="60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:16" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>16</v>
@@ -6144,7 +6138,7 @@
         <v>20</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F46" s="32" t="s">
         <v>38</v>
@@ -6156,18 +6150,18 @@
         <v>38</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J46" s="61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C47" s="52" t="s">
         <v>18</v>
@@ -6176,7 +6170,7 @@
         <v>20</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F47" s="32" t="s">
         <v>38</v>
@@ -6188,15 +6182,15 @@
         <v>38</v>
       </c>
       <c r="I47" s="62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J47" s="60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>34</v>
@@ -6208,7 +6202,7 @@
         <v>38</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F48" s="32" t="s">
         <v>38</v>
@@ -6220,10 +6214,10 @@
         <v>38</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J48" s="60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
